--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H2">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I2">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J2">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.038094</v>
+        <v>92.64038833333332</v>
       </c>
       <c r="N2">
-        <v>261.114282</v>
+        <v>277.921165</v>
       </c>
       <c r="O2">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="P2">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="Q2">
-        <v>173.278657944678</v>
+        <v>243.5730426182972</v>
       </c>
       <c r="R2">
-        <v>1559.507921502102</v>
+        <v>2192.157383564675</v>
       </c>
       <c r="S2">
-        <v>0.08277473093236355</v>
+        <v>0.1053848282130126</v>
       </c>
       <c r="T2">
-        <v>0.08277473093236355</v>
+        <v>0.1053848282130125</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H3">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I3">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J3">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>2.255465</v>
       </c>
       <c r="N3">
-        <v>6.766395000000001</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="O3">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="P3">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="Q3">
-        <v>4.490263174205001</v>
+        <v>5.930140001058332</v>
       </c>
       <c r="R3">
-        <v>40.41236856784501</v>
+        <v>53.371260009525</v>
       </c>
       <c r="S3">
-        <v>0.002144986176999274</v>
+        <v>0.002565746925738408</v>
       </c>
       <c r="T3">
-        <v>0.002144986176999274</v>
+        <v>0.002565746925738408</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H4">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I4">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J4">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.247359</v>
+        <v>28.72545833333334</v>
       </c>
       <c r="N4">
-        <v>84.74207700000001</v>
+        <v>86.17637500000001</v>
       </c>
       <c r="O4">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="P4">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="Q4">
-        <v>56.235887449483</v>
+        <v>75.52588468951389</v>
       </c>
       <c r="R4">
-        <v>506.122987045347</v>
+        <v>679.7329622056251</v>
       </c>
       <c r="S4">
-        <v>0.02686372636761644</v>
+        <v>0.03267718914245035</v>
       </c>
       <c r="T4">
-        <v>0.02686372636761644</v>
+        <v>0.03267718914245034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H5">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I5">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J5">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5269253333333334</v>
+        <v>0.706587</v>
       </c>
       <c r="N5">
-        <v>1.580776</v>
+        <v>2.119761</v>
       </c>
       <c r="O5">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543222</v>
       </c>
       <c r="P5">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543223</v>
       </c>
       <c r="Q5">
-        <v>1.049022449837333</v>
+        <v>1.857780915655</v>
       </c>
       <c r="R5">
-        <v>9.441202048535999</v>
+        <v>16.720028240895</v>
       </c>
       <c r="S5">
-        <v>0.000501115094364459</v>
+        <v>0.0008037914235054524</v>
       </c>
       <c r="T5">
-        <v>0.000501115094364459</v>
+        <v>0.0008037914235054523</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>34.28296</v>
       </c>
       <c r="I6">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J6">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.038094</v>
+        <v>92.64038833333332</v>
       </c>
       <c r="N6">
-        <v>261.114282</v>
+        <v>277.921165</v>
       </c>
       <c r="O6">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="P6">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="Q6">
-        <v>994.64116502608</v>
+        <v>1058.662242538711</v>
       </c>
       <c r="R6">
-        <v>8951.770485234721</v>
+        <v>9527.960182848399</v>
       </c>
       <c r="S6">
-        <v>0.4751373064972141</v>
+        <v>0.4580430468259207</v>
       </c>
       <c r="T6">
-        <v>0.4751373064972141</v>
+        <v>0.4580430468259207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>34.28296</v>
       </c>
       <c r="I7">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J7">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>2.255465</v>
       </c>
       <c r="N7">
-        <v>6.766395000000001</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="O7">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="P7">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="Q7">
-        <v>25.77467212546667</v>
+        <v>25.77467212546666</v>
       </c>
       <c r="R7">
-        <v>231.9720491292001</v>
+        <v>231.9720491292</v>
       </c>
       <c r="S7">
-        <v>0.01231248888559921</v>
+        <v>0.01115172420145718</v>
       </c>
       <c r="T7">
-        <v>0.01231248888559921</v>
+        <v>0.01115172420145718</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>34.28296</v>
       </c>
       <c r="I8">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J8">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.247359</v>
+        <v>28.72545833333334</v>
       </c>
       <c r="N8">
-        <v>84.74207700000001</v>
+        <v>86.17637500000001</v>
       </c>
       <c r="O8">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="P8">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="Q8">
-        <v>322.8010262342134</v>
+        <v>328.2645796744445</v>
       </c>
       <c r="R8">
-        <v>2905.20923610792</v>
+        <v>2954.38121707</v>
       </c>
       <c r="S8">
-        <v>0.1542011486478534</v>
+        <v>0.1420276479102018</v>
       </c>
       <c r="T8">
-        <v>0.1542011486478534</v>
+        <v>0.1420276479102018</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>34.28296</v>
       </c>
       <c r="I9">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J9">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5269253333333334</v>
+        <v>0.706587</v>
       </c>
       <c r="N9">
-        <v>1.580776</v>
+        <v>2.119761</v>
       </c>
       <c r="O9">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543222</v>
       </c>
       <c r="P9">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543223</v>
       </c>
       <c r="Q9">
-        <v>6.021520041884445</v>
+        <v>8.074631285840001</v>
       </c>
       <c r="R9">
-        <v>54.19368037696</v>
+        <v>72.67168157256</v>
       </c>
       <c r="S9">
-        <v>0.00287646330588474</v>
+        <v>0.003493587064456787</v>
       </c>
       <c r="T9">
-        <v>0.00287646330588474</v>
+        <v>0.003493587064456788</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H10">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I10">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J10">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.038094</v>
+        <v>92.64038833333332</v>
       </c>
       <c r="N10">
-        <v>261.114282</v>
+        <v>277.921165</v>
       </c>
       <c r="O10">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="P10">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="Q10">
-        <v>355.563611678704</v>
+        <v>393.4724477720499</v>
       </c>
       <c r="R10">
-        <v>3200.072505108336</v>
+        <v>3541.252029948449</v>
       </c>
       <c r="S10">
-        <v>0.1698517442086876</v>
+        <v>0.1702406221528889</v>
       </c>
       <c r="T10">
-        <v>0.1698517442086876</v>
+        <v>0.1702406221528889</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H11">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I11">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J11">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>2.255465</v>
       </c>
       <c r="N11">
-        <v>6.766395000000001</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="O11">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="P11">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="Q11">
-        <v>9.213911341106668</v>
+        <v>9.579659049149997</v>
       </c>
       <c r="R11">
-        <v>82.92520206996001</v>
+        <v>86.21693144234999</v>
       </c>
       <c r="S11">
-        <v>0.004401459713164762</v>
+        <v>0.004144755562363149</v>
       </c>
       <c r="T11">
-        <v>0.004401459713164762</v>
+        <v>0.004144755562363149</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H12">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I12">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J12">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.247359</v>
+        <v>28.72545833333334</v>
       </c>
       <c r="N12">
-        <v>84.74207700000001</v>
+        <v>86.17637500000001</v>
       </c>
       <c r="O12">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="P12">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="Q12">
-        <v>115.3946797872773</v>
+        <v>122.00592643375</v>
       </c>
       <c r="R12">
-        <v>1038.552118085496</v>
+        <v>1098.05333790375</v>
       </c>
       <c r="S12">
-        <v>0.05512371623669711</v>
+        <v>0.0527873423921516</v>
       </c>
       <c r="T12">
-        <v>0.05512371623669712</v>
+        <v>0.05278734239215161</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H13">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I13">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J13">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5269253333333334</v>
+        <v>0.706587</v>
       </c>
       <c r="N13">
-        <v>1.580776</v>
+        <v>2.119761</v>
       </c>
       <c r="O13">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543222</v>
       </c>
       <c r="P13">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543223</v>
       </c>
       <c r="Q13">
-        <v>2.152568674183111</v>
+        <v>3.00109403097</v>
       </c>
       <c r="R13">
-        <v>19.373118067648</v>
+        <v>27.00984627873</v>
       </c>
       <c r="S13">
-        <v>0.001028276043526537</v>
+        <v>0.001298459696135161</v>
       </c>
       <c r="T13">
-        <v>0.001028276043526537</v>
+        <v>0.001298459696135161</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H14">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I14">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J14">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>87.038094</v>
+        <v>92.64038833333332</v>
       </c>
       <c r="N14">
-        <v>261.114282</v>
+        <v>277.921165</v>
       </c>
       <c r="O14">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="P14">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="Q14">
-        <v>19.72660375114</v>
+        <v>26.48956175990389</v>
       </c>
       <c r="R14">
-        <v>177.53943376026</v>
+        <v>238.406055839135</v>
       </c>
       <c r="S14">
-        <v>0.009423343515456388</v>
+        <v>0.01146102986396637</v>
       </c>
       <c r="T14">
-        <v>0.009423343515456388</v>
+        <v>0.01146102986396637</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H15">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I15">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J15">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>2.255465</v>
       </c>
       <c r="N15">
-        <v>6.766395000000001</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="O15">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="P15">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="Q15">
-        <v>0.5111861058166667</v>
+        <v>0.6449269102783333</v>
       </c>
       <c r="R15">
-        <v>4.60067495235</v>
+        <v>5.804342192505</v>
       </c>
       <c r="S15">
-        <v>0.0002441921750043015</v>
+        <v>0.0002790354421779742</v>
       </c>
       <c r="T15">
-        <v>0.0002441921750043015</v>
+        <v>0.0002790354421779742</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H16">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I16">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J16">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>28.247359</v>
+        <v>28.72545833333334</v>
       </c>
       <c r="N16">
-        <v>84.74207700000001</v>
+        <v>86.17637500000001</v>
       </c>
       <c r="O16">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="P16">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="Q16">
-        <v>6.402075601623333</v>
+        <v>8.213747980680557</v>
       </c>
       <c r="R16">
-        <v>57.61868041461</v>
+        <v>73.92373182612502</v>
       </c>
       <c r="S16">
-        <v>0.003058253633879191</v>
+        <v>0.003553777588127788</v>
       </c>
       <c r="T16">
-        <v>0.003058253633879192</v>
+        <v>0.003553777588127788</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H17">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I17">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J17">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5269253333333334</v>
+        <v>0.706587</v>
       </c>
       <c r="N17">
-        <v>1.580776</v>
+        <v>2.119761</v>
       </c>
       <c r="O17">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543222</v>
       </c>
       <c r="P17">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543223</v>
       </c>
       <c r="Q17">
-        <v>0.1194241139644444</v>
+        <v>0.202041251251</v>
       </c>
       <c r="R17">
-        <v>1.07481702568</v>
+        <v>1.818371261259</v>
       </c>
       <c r="S17">
-        <v>5.704856568890815E-05</v>
+        <v>8.741559544582081E-05</v>
       </c>
       <c r="T17">
-        <v>5.704856568890815E-05</v>
+        <v>8.741559544582083E-05</v>
       </c>
     </row>
   </sheetData>
